--- a/data/pca/factorExposure/factorExposure_2015-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01933047306061985</v>
+        <v>0.01118506464972014</v>
       </c>
       <c r="C2">
-        <v>-0.03899074836416058</v>
+        <v>-0.05459873990134444</v>
       </c>
       <c r="D2">
-        <v>-0.1157703910466968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08138258198381129</v>
+      </c>
+      <c r="E2">
+        <v>-0.07768826085149395</v>
+      </c>
+      <c r="F2">
+        <v>0.03673811925925478</v>
+      </c>
+      <c r="G2">
+        <v>-0.1547766619314093</v>
+      </c>
+      <c r="H2">
+        <v>-0.03378719968070032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04831134143024035</v>
+        <v>0.02040685384231755</v>
       </c>
       <c r="C4">
-        <v>-0.07873995043462231</v>
+        <v>-0.1161851030070137</v>
       </c>
       <c r="D4">
-        <v>-0.07962669765770425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08777401047753497</v>
+      </c>
+      <c r="E4">
+        <v>-0.09114873874367799</v>
+      </c>
+      <c r="F4">
+        <v>0.1000423826764483</v>
+      </c>
+      <c r="G4">
+        <v>-0.009570289111505263</v>
+      </c>
+      <c r="H4">
+        <v>0.07213972065832688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02975858496455224</v>
+        <v>0.03428199381438313</v>
       </c>
       <c r="C6">
-        <v>-0.01983346146966939</v>
+        <v>-0.04088309863220047</v>
       </c>
       <c r="D6">
-        <v>-0.08846052874393341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07056670040194354</v>
+      </c>
+      <c r="E6">
+        <v>-0.1110030739380068</v>
+      </c>
+      <c r="F6">
+        <v>0.0467537670928085</v>
+      </c>
+      <c r="G6">
+        <v>0.008621744352093629</v>
+      </c>
+      <c r="H6">
+        <v>-0.01762682900339186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001676921470982031</v>
+        <v>0.006308968595914284</v>
       </c>
       <c r="C7">
-        <v>-0.03271292764679549</v>
+        <v>-0.04552718200074683</v>
       </c>
       <c r="D7">
-        <v>-0.07363322488955479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05086290301413983</v>
+      </c>
+      <c r="E7">
+        <v>-0.09328565733762603</v>
+      </c>
+      <c r="F7">
+        <v>0.01448553846820493</v>
+      </c>
+      <c r="G7">
+        <v>0.004215149932689149</v>
+      </c>
+      <c r="H7">
+        <v>0.03042323190511869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0005260036452376815</v>
+        <v>-0.006083103472274237</v>
       </c>
       <c r="C8">
-        <v>-0.03233889629304772</v>
+        <v>-0.03985692412993558</v>
       </c>
       <c r="D8">
-        <v>-0.06592909491569887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04299132334232447</v>
+      </c>
+      <c r="E8">
+        <v>-0.06891375196378141</v>
+      </c>
+      <c r="F8">
+        <v>0.05521856960319738</v>
+      </c>
+      <c r="G8">
+        <v>-0.06314390913654785</v>
+      </c>
+      <c r="H8">
+        <v>0.04582561071529937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03505738104813493</v>
+        <v>0.01333887363734172</v>
       </c>
       <c r="C9">
-        <v>-0.07082130557812683</v>
+        <v>-0.09616825646423763</v>
       </c>
       <c r="D9">
-        <v>-0.08584143973931394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0765151937061596</v>
+      </c>
+      <c r="E9">
+        <v>-0.07877909259033868</v>
+      </c>
+      <c r="F9">
+        <v>0.07056904383564051</v>
+      </c>
+      <c r="G9">
+        <v>0.001324489296181263</v>
+      </c>
+      <c r="H9">
+        <v>0.02060206574200663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1927965571058652</v>
+        <v>0.2435146523129072</v>
       </c>
       <c r="C10">
-        <v>0.157255494586269</v>
+        <v>0.09092249522280818</v>
       </c>
       <c r="D10">
-        <v>0.04873478871436702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007375269169995638</v>
+      </c>
+      <c r="E10">
+        <v>0.02989505497906974</v>
+      </c>
+      <c r="F10">
+        <v>0.03745157343626256</v>
+      </c>
+      <c r="G10">
+        <v>0.01392134204314304</v>
+      </c>
+      <c r="H10">
+        <v>-0.0007208456155273329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01227722897558405</v>
+        <v>0.009681043332798945</v>
       </c>
       <c r="C11">
-        <v>-0.04132369014004511</v>
+        <v>-0.06044164900289759</v>
       </c>
       <c r="D11">
-        <v>-0.04211882796136298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02731630462123884</v>
+      </c>
+      <c r="E11">
+        <v>-0.05392167215067478</v>
+      </c>
+      <c r="F11">
+        <v>-0.001022442774988944</v>
+      </c>
+      <c r="G11">
+        <v>0.009181648150643621</v>
+      </c>
+      <c r="H11">
+        <v>0.01207732147545746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01156753943375504</v>
+        <v>0.01031116478542586</v>
       </c>
       <c r="C12">
-        <v>-0.04310002259031016</v>
+        <v>-0.05129200683372514</v>
       </c>
       <c r="D12">
-        <v>-0.04984588355674643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03289121463796203</v>
+      </c>
+      <c r="E12">
+        <v>-0.04515184645183161</v>
+      </c>
+      <c r="F12">
+        <v>-0.004160842847415221</v>
+      </c>
+      <c r="G12">
+        <v>0.006271949738987975</v>
+      </c>
+      <c r="H12">
+        <v>-0.02012508478610158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01097369756730629</v>
+        <v>0.004294428374558774</v>
       </c>
       <c r="C13">
-        <v>-0.03579997490940284</v>
+        <v>-0.06648255830125921</v>
       </c>
       <c r="D13">
-        <v>-0.1101053664218968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1160383297294103</v>
+      </c>
+      <c r="E13">
+        <v>-0.1043086698476704</v>
+      </c>
+      <c r="F13">
+        <v>0.0289023941874817</v>
+      </c>
+      <c r="G13">
+        <v>-0.04835146450116803</v>
+      </c>
+      <c r="H13">
+        <v>-0.07916623760956989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01122604133484113</v>
+        <v>0.002549639840523695</v>
       </c>
       <c r="C14">
-        <v>-0.02061730371221093</v>
+        <v>-0.03532498183533826</v>
       </c>
       <c r="D14">
-        <v>-0.0571616684748797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05472084768577762</v>
+      </c>
+      <c r="E14">
+        <v>-0.109680907137158</v>
+      </c>
+      <c r="F14">
+        <v>0.04248742461339029</v>
+      </c>
+      <c r="G14">
+        <v>-0.01989501812232502</v>
+      </c>
+      <c r="H14">
+        <v>-0.03202533880331881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003185057870641604</v>
+        <v>-0.004296640007268055</v>
       </c>
       <c r="C15">
-        <v>-0.01304943551194091</v>
+        <v>-0.03147187882682543</v>
       </c>
       <c r="D15">
-        <v>-0.04856080741597514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04899639140390582</v>
+      </c>
+      <c r="E15">
+        <v>-0.05855001226099353</v>
+      </c>
+      <c r="F15">
+        <v>0.01391516995347154</v>
+      </c>
+      <c r="G15">
+        <v>-0.02072497126264812</v>
+      </c>
+      <c r="H15">
+        <v>0.01281098158252385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01191546764221856</v>
+        <v>0.009150115123372916</v>
       </c>
       <c r="C16">
-        <v>-0.04066511834397493</v>
+        <v>-0.05356164151827549</v>
       </c>
       <c r="D16">
-        <v>-0.0462013521219258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02983272367574234</v>
+      </c>
+      <c r="E16">
+        <v>-0.0493847813361776</v>
+      </c>
+      <c r="F16">
+        <v>-0.003287476270382076</v>
+      </c>
+      <c r="G16">
+        <v>0.02286783415947753</v>
+      </c>
+      <c r="H16">
+        <v>-0.001624867239577041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.001012554574155276</v>
+        <v>-0.001418681973696826</v>
       </c>
       <c r="C19">
-        <v>-0.01834450133272829</v>
+        <v>-0.01442988530789406</v>
       </c>
       <c r="D19">
-        <v>-0.04877571930514191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02792283805200219</v>
+      </c>
+      <c r="E19">
+        <v>-0.01092943188826662</v>
+      </c>
+      <c r="F19">
+        <v>0.01372627629281156</v>
+      </c>
+      <c r="G19">
+        <v>-0.0279755334618737</v>
+      </c>
+      <c r="H19">
+        <v>-0.007011772005644771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001161591876380601</v>
+        <v>0.00451741587247438</v>
       </c>
       <c r="C20">
-        <v>-0.03066132960497114</v>
+        <v>-0.04779278044656946</v>
       </c>
       <c r="D20">
-        <v>-0.05460717727998059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05734311977939055</v>
+      </c>
+      <c r="E20">
+        <v>-0.06687092735135107</v>
+      </c>
+      <c r="F20">
+        <v>0.02558587435780744</v>
+      </c>
+      <c r="G20">
+        <v>0.02229240052561213</v>
+      </c>
+      <c r="H20">
+        <v>0.02270309408302412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.00410850413841836</v>
+        <v>0.002925509528531359</v>
       </c>
       <c r="C21">
-        <v>-0.03302180927649551</v>
+        <v>-0.04801013325660265</v>
       </c>
       <c r="D21">
-        <v>-0.08412696795869008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.08655851354247161</v>
+      </c>
+      <c r="E21">
+        <v>-0.09073854921933827</v>
+      </c>
+      <c r="F21">
+        <v>0.1080160466669634</v>
+      </c>
+      <c r="G21">
+        <v>-0.07584472455585245</v>
+      </c>
+      <c r="H21">
+        <v>-0.08026617111412519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004886146408807866</v>
+        <v>-0.008737831074966566</v>
       </c>
       <c r="C22">
-        <v>-0.05737518514761348</v>
+        <v>-0.08557711371910008</v>
       </c>
       <c r="D22">
-        <v>-0.198025222863683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.191565706678766</v>
+      </c>
+      <c r="E22">
+        <v>-0.1299544467677775</v>
+      </c>
+      <c r="F22">
+        <v>0.04940574070034937</v>
+      </c>
+      <c r="G22">
+        <v>-0.2169391040264411</v>
+      </c>
+      <c r="H22">
+        <v>0.1565280699261405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.005303985361682337</v>
+        <v>-0.005638399884453406</v>
       </c>
       <c r="C23">
-        <v>-0.05780788648428264</v>
+        <v>-0.08775252115987078</v>
       </c>
       <c r="D23">
-        <v>-0.1971148101228972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1950740354723558</v>
+      </c>
+      <c r="E23">
+        <v>-0.1274668014895994</v>
+      </c>
+      <c r="F23">
+        <v>0.05204633295940605</v>
+      </c>
+      <c r="G23">
+        <v>-0.2114386448852656</v>
+      </c>
+      <c r="H23">
+        <v>0.1489512206807611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.01841714203285981</v>
+        <v>0.01056253892146703</v>
       </c>
       <c r="C24">
-        <v>-0.06108703374862622</v>
+        <v>-0.07092077830993487</v>
       </c>
       <c r="D24">
-        <v>-0.05707024396038474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02729809754481095</v>
+      </c>
+      <c r="E24">
+        <v>-0.0614041991470221</v>
+      </c>
+      <c r="F24">
+        <v>0.001366472227894413</v>
+      </c>
+      <c r="G24">
+        <v>7.175240437450048e-05</v>
+      </c>
+      <c r="H24">
+        <v>0.005303991727741572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0180733894252178</v>
+        <v>0.0147193197858567</v>
       </c>
       <c r="C25">
-        <v>-0.05315570133654306</v>
+        <v>-0.06550639729883469</v>
       </c>
       <c r="D25">
-        <v>-0.04415470950234751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03150924574088166</v>
+      </c>
+      <c r="E25">
+        <v>-0.04329435354865304</v>
+      </c>
+      <c r="F25">
+        <v>0.001594774752845154</v>
+      </c>
+      <c r="G25">
+        <v>0.01388743546025584</v>
+      </c>
+      <c r="H25">
+        <v>0.001629678671183183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006494918170898784</v>
+        <v>0.01710418525019507</v>
       </c>
       <c r="C26">
-        <v>-0.02003081695814942</v>
+        <v>-0.03408202953667198</v>
       </c>
       <c r="D26">
-        <v>-0.04974059447965095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03411210827686303</v>
+      </c>
+      <c r="E26">
+        <v>-0.07854016225183374</v>
+      </c>
+      <c r="F26">
+        <v>0.05409965614483916</v>
+      </c>
+      <c r="G26">
+        <v>-0.02257487225735196</v>
+      </c>
+      <c r="H26">
+        <v>0.0001366788156772738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2737677785008829</v>
+        <v>0.3121177595360755</v>
       </c>
       <c r="C28">
-        <v>0.1762718939950179</v>
+        <v>0.09328508101614207</v>
       </c>
       <c r="D28">
-        <v>0.01115800176935105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001908594915333499</v>
+      </c>
+      <c r="E28">
+        <v>0.05059639001124682</v>
+      </c>
+      <c r="F28">
+        <v>0.0505106700512953</v>
+      </c>
+      <c r="G28">
+        <v>-0.05561165709662137</v>
+      </c>
+      <c r="H28">
+        <v>0.03210870474805021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003187702226958761</v>
+        <v>0.001461467602753168</v>
       </c>
       <c r="C29">
-        <v>-0.02360858006968474</v>
+        <v>-0.04153813105474023</v>
       </c>
       <c r="D29">
-        <v>-0.06003967930189547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.06285225663698676</v>
+      </c>
+      <c r="E29">
+        <v>-0.1227841504150496</v>
+      </c>
+      <c r="F29">
+        <v>0.04763303558991606</v>
+      </c>
+      <c r="G29">
+        <v>-0.008056531275533314</v>
+      </c>
+      <c r="H29">
+        <v>-0.04775527613987989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02754555726048682</v>
+        <v>0.01657561649509802</v>
       </c>
       <c r="C30">
-        <v>-0.07543524656556741</v>
+        <v>-0.100958323904446</v>
       </c>
       <c r="D30">
-        <v>-0.1378030207451841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09074447361124348</v>
+      </c>
+      <c r="E30">
+        <v>-0.1287137273194112</v>
+      </c>
+      <c r="F30">
+        <v>0.02477973713575807</v>
+      </c>
+      <c r="G30">
+        <v>-0.003754015947297282</v>
+      </c>
+      <c r="H30">
+        <v>0.03308249029118673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03396072562297139</v>
+        <v>0.01057568815193271</v>
       </c>
       <c r="C31">
-        <v>-0.08438751942939668</v>
+        <v>-0.09567183705935244</v>
       </c>
       <c r="D31">
-        <v>-0.04674076638775262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02140355256371442</v>
+      </c>
+      <c r="E31">
+        <v>-0.03399531039715308</v>
+      </c>
+      <c r="F31">
+        <v>0.02165101258102795</v>
+      </c>
+      <c r="G31">
+        <v>-0.01901882970990401</v>
+      </c>
+      <c r="H31">
+        <v>0.009255459135125736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01559111176168201</v>
+        <v>0.01259632975659453</v>
       </c>
       <c r="C32">
-        <v>-0.04454995515265487</v>
+        <v>-0.05523022176592605</v>
       </c>
       <c r="D32">
-        <v>-0.06974784224079927</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07559899273018515</v>
+      </c>
+      <c r="E32">
+        <v>-0.03080183122458467</v>
+      </c>
+      <c r="F32">
+        <v>0.05679540954303007</v>
+      </c>
+      <c r="G32">
+        <v>-0.04255422402391556</v>
+      </c>
+      <c r="H32">
+        <v>-0.01875173654062511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.006257980418795002</v>
+        <v>0.006811040566916085</v>
       </c>
       <c r="C33">
-        <v>-0.04412558238991425</v>
+        <v>-0.06716900735637699</v>
       </c>
       <c r="D33">
-        <v>-0.08704082958890504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08038571894203972</v>
+      </c>
+      <c r="E33">
+        <v>-0.09386821363282107</v>
+      </c>
+      <c r="F33">
+        <v>0.03679008940143823</v>
+      </c>
+      <c r="G33">
+        <v>-0.00510016659123172</v>
+      </c>
+      <c r="H33">
+        <v>-0.005187688646071317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01408440637853827</v>
+        <v>0.008973790232416751</v>
       </c>
       <c r="C34">
-        <v>-0.06110918019080505</v>
+        <v>-0.0622073527928414</v>
       </c>
       <c r="D34">
-        <v>-0.05782012736410709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0132380893944231</v>
+      </c>
+      <c r="E34">
+        <v>-0.04451557149704378</v>
+      </c>
+      <c r="F34">
+        <v>-0.03212528923766587</v>
+      </c>
+      <c r="G34">
+        <v>-0.001616642945947379</v>
+      </c>
+      <c r="H34">
+        <v>-0.008093006852740626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0003176991296694807</v>
+        <v>0.004313667915272558</v>
       </c>
       <c r="C35">
-        <v>-0.001327264908011529</v>
+        <v>-0.01677267041317155</v>
       </c>
       <c r="D35">
-        <v>-0.001483670544353478</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02780906137523999</v>
+      </c>
+      <c r="E35">
+        <v>-0.03353655117387051</v>
+      </c>
+      <c r="F35">
+        <v>0.02736578025581651</v>
+      </c>
+      <c r="G35">
+        <v>0.002701263133472583</v>
+      </c>
+      <c r="H35">
+        <v>-0.01149054321603297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006095542672604784</v>
+        <v>0.01095659682578989</v>
       </c>
       <c r="C36">
-        <v>-0.01203769906699851</v>
+        <v>-0.02671003595384408</v>
       </c>
       <c r="D36">
-        <v>-0.04787226822155052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04601994467540341</v>
+      </c>
+      <c r="E36">
+        <v>-0.07108315448168839</v>
+      </c>
+      <c r="F36">
+        <v>0.05381225023657113</v>
+      </c>
+      <c r="G36">
+        <v>-0.007562964367497775</v>
+      </c>
+      <c r="H36">
+        <v>-0.005542144261255338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001764157968441992</v>
+        <v>0.00754163360668756</v>
       </c>
       <c r="C38">
-        <v>-0.009547909918924418</v>
+        <v>-0.02945894545515131</v>
       </c>
       <c r="D38">
-        <v>-0.07702633137944988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07209654687420571</v>
+      </c>
+      <c r="E38">
+        <v>-0.07124415697566452</v>
+      </c>
+      <c r="F38">
+        <v>0.01755075918322275</v>
+      </c>
+      <c r="G38">
+        <v>-0.01936264316644827</v>
+      </c>
+      <c r="H38">
+        <v>0.03812223854943033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01401499029182783</v>
+        <v>0.007516285322595009</v>
       </c>
       <c r="C39">
-        <v>-0.06163962156862996</v>
+        <v>-0.08938142280101211</v>
       </c>
       <c r="D39">
-        <v>-0.0966646090824414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05885248590442189</v>
+      </c>
+      <c r="E39">
+        <v>-0.1088750361934224</v>
+      </c>
+      <c r="F39">
+        <v>0.006899769525360134</v>
+      </c>
+      <c r="G39">
+        <v>0.002443760845551767</v>
+      </c>
+      <c r="H39">
+        <v>0.001042724085627004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01529492943370517</v>
+        <v>0.0132301499313664</v>
       </c>
       <c r="C40">
-        <v>-0.02987359083683287</v>
+        <v>-0.04505761982854063</v>
       </c>
       <c r="D40">
-        <v>-0.1088701206444163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06497102767558544</v>
+      </c>
+      <c r="E40">
+        <v>-0.08676030808714512</v>
+      </c>
+      <c r="F40">
+        <v>-0.02628772481570334</v>
+      </c>
+      <c r="G40">
+        <v>-0.0657701141314177</v>
+      </c>
+      <c r="H40">
+        <v>-0.01621811233381921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008145943594500951</v>
+        <v>0.01677117858623041</v>
       </c>
       <c r="C41">
-        <v>-0.007598120824550434</v>
+        <v>-0.02570983977305677</v>
       </c>
       <c r="D41">
-        <v>-0.02186790577359353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03311142458919596</v>
+      </c>
+      <c r="E41">
+        <v>-0.02522808522422427</v>
+      </c>
+      <c r="F41">
+        <v>0.01990429990637547</v>
+      </c>
+      <c r="G41">
+        <v>-0.003648661911263</v>
+      </c>
+      <c r="H41">
+        <v>0.005919905988658866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003865656960809507</v>
+        <v>0.007966189531952743</v>
       </c>
       <c r="C43">
-        <v>-0.005104779479840997</v>
+        <v>-0.01983647467190914</v>
       </c>
       <c r="D43">
-        <v>-0.03685774862996118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03960080642043903</v>
+      </c>
+      <c r="E43">
+        <v>-0.0415833840448903</v>
+      </c>
+      <c r="F43">
+        <v>0.02442845816467326</v>
+      </c>
+      <c r="G43">
+        <v>0.0001850154989413064</v>
+      </c>
+      <c r="H43">
+        <v>0.01629308549213817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01863703314607439</v>
+        <v>0.008343648360090912</v>
       </c>
       <c r="C44">
-        <v>-0.03479819656208746</v>
+        <v>-0.05485837818266844</v>
       </c>
       <c r="D44">
-        <v>-0.0822759074707025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07040253821022138</v>
+      </c>
+      <c r="E44">
+        <v>-0.0972788736725389</v>
+      </c>
+      <c r="F44">
+        <v>0.03962607623562885</v>
+      </c>
+      <c r="G44">
+        <v>-0.03207625462682759</v>
+      </c>
+      <c r="H44">
+        <v>0.02310962134604827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.003295613227693767</v>
+        <v>-5.559180702241904e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03225375961085808</v>
+        <v>-0.0433012671416747</v>
       </c>
       <c r="D46">
-        <v>-0.06419017051058513</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03866880867828417</v>
+      </c>
+      <c r="E46">
+        <v>-0.09306479227971538</v>
+      </c>
+      <c r="F46">
+        <v>0.04376806221936861</v>
+      </c>
+      <c r="G46">
+        <v>-0.0205343880133597</v>
+      </c>
+      <c r="H46">
+        <v>-0.0007191939139552963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07045281354068793</v>
+        <v>0.03144215992529437</v>
       </c>
       <c r="C47">
-        <v>-0.1122077615457457</v>
+        <v>-0.1241267015534032</v>
       </c>
       <c r="D47">
-        <v>-0.04980297509710861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01715286228870607</v>
+      </c>
+      <c r="E47">
+        <v>-0.006099190103678618</v>
+      </c>
+      <c r="F47">
+        <v>0.001805233695783922</v>
+      </c>
+      <c r="G47">
+        <v>0.009172379719060462</v>
+      </c>
+      <c r="H47">
+        <v>0.0177497378101122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.004472994357436165</v>
+        <v>0.01201787369355267</v>
       </c>
       <c r="C48">
-        <v>-0.01936441693233017</v>
+        <v>-0.03521713875846294</v>
       </c>
       <c r="D48">
-        <v>-0.04946189615675286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05069022116457979</v>
+      </c>
+      <c r="E48">
+        <v>-0.07480567609591718</v>
+      </c>
+      <c r="F48">
+        <v>0.06643413987920065</v>
+      </c>
+      <c r="G48">
+        <v>-0.01596121183656565</v>
+      </c>
+      <c r="H48">
+        <v>0.008448503284373165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003200115366344721</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.003869095340388755</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003653887901776945</v>
+      </c>
+      <c r="E49">
+        <v>0.00131718842952667</v>
+      </c>
+      <c r="F49">
+        <v>-0.004060750446919143</v>
+      </c>
+      <c r="G49">
+        <v>0.008983922643733377</v>
+      </c>
+      <c r="H49">
+        <v>-0.007634265713150094</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03321947143624918</v>
+        <v>0.01496392918864736</v>
       </c>
       <c r="C50">
-        <v>-0.05843119385208591</v>
+        <v>-0.07677667215827406</v>
       </c>
       <c r="D50">
-        <v>-0.06328901185566192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03733108189273813</v>
+      </c>
+      <c r="E50">
+        <v>-0.04249998176619611</v>
+      </c>
+      <c r="F50">
+        <v>0.01199812295200431</v>
+      </c>
+      <c r="G50">
+        <v>-0.01100214640728443</v>
+      </c>
+      <c r="H50">
+        <v>0.01990601657359672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.006447702091089189</v>
+        <v>-0.003992332312325018</v>
       </c>
       <c r="C51">
-        <v>-0.007291157819680422</v>
+        <v>-0.01976975083894424</v>
       </c>
       <c r="D51">
-        <v>-0.05049445647067059</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0220606181113106</v>
+      </c>
+      <c r="E51">
+        <v>-0.06311818808931241</v>
+      </c>
+      <c r="F51">
+        <v>0.03429690104804155</v>
+      </c>
+      <c r="G51">
+        <v>-0.03994219905246453</v>
+      </c>
+      <c r="H51">
+        <v>0.0007948502714975261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1063778306947701</v>
+        <v>0.06058664940573723</v>
       </c>
       <c r="C53">
-        <v>-0.1356170494901793</v>
+        <v>-0.1636113852893315</v>
       </c>
       <c r="D53">
-        <v>0.006496488705383699</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02000390064094622</v>
+      </c>
+      <c r="E53">
+        <v>0.03295592683540204</v>
+      </c>
+      <c r="F53">
+        <v>0.03263609261699298</v>
+      </c>
+      <c r="G53">
+        <v>-0.004375928765027715</v>
+      </c>
+      <c r="H53">
+        <v>0.008895428547093406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.005432279856997643</v>
+        <v>0.01008360025194863</v>
       </c>
       <c r="C54">
-        <v>-0.02584265341755889</v>
+        <v>-0.0427587796841546</v>
       </c>
       <c r="D54">
-        <v>-0.08211818753232189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.062345022794404</v>
+      </c>
+      <c r="E54">
+        <v>-0.06621303200318134</v>
+      </c>
+      <c r="F54">
+        <v>0.01781326211149584</v>
+      </c>
+      <c r="G54">
+        <v>-0.01913633910009431</v>
+      </c>
+      <c r="H54">
+        <v>0.02490025268872919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08786419245348953</v>
+        <v>0.04222607850701607</v>
       </c>
       <c r="C55">
-        <v>-0.111475801027643</v>
+        <v>-0.1278952674208973</v>
       </c>
       <c r="D55">
-        <v>-0.0002892209666942974</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04844852508234351</v>
+      </c>
+      <c r="E55">
+        <v>0.01683205442134322</v>
+      </c>
+      <c r="F55">
+        <v>-0.003348755759340449</v>
+      </c>
+      <c r="G55">
+        <v>-0.02144799522160715</v>
+      </c>
+      <c r="H55">
+        <v>0.004271286561501252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1294496486128707</v>
+        <v>0.06151400271828596</v>
       </c>
       <c r="C56">
-        <v>-0.1580252720821624</v>
+        <v>-0.1925160357102922</v>
       </c>
       <c r="D56">
-        <v>-0.02101439631763121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04184818819741869</v>
+      </c>
+      <c r="E56">
+        <v>0.04507677235377196</v>
+      </c>
+      <c r="F56">
+        <v>-0.005856395512566013</v>
+      </c>
+      <c r="G56">
+        <v>-0.06972476173238693</v>
+      </c>
+      <c r="H56">
+        <v>0.02128066007666875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.008346517709891955</v>
+        <v>0.007892935036900207</v>
       </c>
       <c r="C58">
-        <v>-0.03145960762764236</v>
+        <v>-0.0777281260927255</v>
       </c>
       <c r="D58">
-        <v>-0.1773583785658468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2095745153523525</v>
+      </c>
+      <c r="E58">
+        <v>-0.1399426603293419</v>
+      </c>
+      <c r="F58">
+        <v>0.131293000273688</v>
+      </c>
+      <c r="G58">
+        <v>-0.1549520891628376</v>
+      </c>
+      <c r="H58">
+        <v>0.1035810766958324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2001977890758375</v>
+        <v>0.2602176101114456</v>
       </c>
       <c r="C59">
-        <v>0.1255373989254296</v>
+        <v>0.05636665569444688</v>
       </c>
       <c r="D59">
-        <v>-0.04476882042366154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04668926577934274</v>
+      </c>
+      <c r="E59">
+        <v>0.00159131895055345</v>
+      </c>
+      <c r="F59">
+        <v>0.02579605359511583</v>
+      </c>
+      <c r="G59">
+        <v>-0.03698740454850911</v>
+      </c>
+      <c r="H59">
+        <v>-0.03095385588808605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1781024669809853</v>
+        <v>0.1536530755527092</v>
       </c>
       <c r="C60">
-        <v>-0.1064962476268956</v>
+        <v>-0.1673192450030943</v>
       </c>
       <c r="D60">
-        <v>-0.1255270033086742</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01576987350895629</v>
+      </c>
+      <c r="E60">
+        <v>-0.1084440488441902</v>
+      </c>
+      <c r="F60">
+        <v>-0.1980627527755976</v>
+      </c>
+      <c r="G60">
+        <v>0.2231263990940672</v>
+      </c>
+      <c r="H60">
+        <v>-0.1714404618946742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02248547554946899</v>
+        <v>0.01384609378865049</v>
       </c>
       <c r="C61">
-        <v>-0.05795317984817821</v>
+        <v>-0.08161206254732072</v>
       </c>
       <c r="D61">
-        <v>-0.07085115236277691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0377280630529652</v>
+      </c>
+      <c r="E61">
+        <v>-0.07768819304359983</v>
+      </c>
+      <c r="F61">
+        <v>-0.002548693365300802</v>
+      </c>
+      <c r="G61">
+        <v>0.002519102657283489</v>
+      </c>
+      <c r="H61">
+        <v>-0.001841902815022336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-2.95323355789418e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0001230748369568723</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0001430059039207473</v>
+      </c>
+      <c r="E62">
+        <v>1.965895969990489e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.0001902294531996718</v>
+      </c>
+      <c r="G62">
+        <v>2.101817009653231e-05</v>
+      </c>
+      <c r="H62">
+        <v>-9.898051685183311e-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01039955780167108</v>
+        <v>0.01591452385156035</v>
       </c>
       <c r="C63">
-        <v>-0.02832644342446493</v>
+        <v>-0.04726115555572952</v>
       </c>
       <c r="D63">
-        <v>-0.07026771829081206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03037629268492292</v>
+      </c>
+      <c r="E63">
+        <v>-0.0941260890739346</v>
+      </c>
+      <c r="F63">
+        <v>0.02724678879704966</v>
+      </c>
+      <c r="G63">
+        <v>3.175854686748523e-05</v>
+      </c>
+      <c r="H63">
+        <v>0.0002494711355255849</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04591460370402105</v>
+        <v>0.01547448534364888</v>
       </c>
       <c r="C64">
-        <v>-0.09540097103058282</v>
+        <v>-0.1028710640301672</v>
       </c>
       <c r="D64">
-        <v>-0.0153102372614441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003675974482207729</v>
+      </c>
+      <c r="E64">
+        <v>-0.03334084187638946</v>
+      </c>
+      <c r="F64">
+        <v>0.02847593050328035</v>
+      </c>
+      <c r="G64">
+        <v>0.03484253833056281</v>
+      </c>
+      <c r="H64">
+        <v>0.02818342781495212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02617890040116757</v>
+        <v>0.02674473402160481</v>
       </c>
       <c r="C65">
-        <v>-0.01774517305546181</v>
+        <v>-0.04766684747352915</v>
       </c>
       <c r="D65">
-        <v>-0.09021344854918283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0841176183793287</v>
+      </c>
+      <c r="E65">
+        <v>-0.09122812963261887</v>
+      </c>
+      <c r="F65">
+        <v>-0.003865988896492094</v>
+      </c>
+      <c r="G65">
+        <v>0.0677458328322052</v>
+      </c>
+      <c r="H65">
+        <v>0.005386193285903058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0223823986235368</v>
+        <v>0.008492121797278868</v>
       </c>
       <c r="C66">
-        <v>-0.07542924713908428</v>
+        <v>-0.1124844333801251</v>
       </c>
       <c r="D66">
-        <v>-0.1172068180208457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0836360659845178</v>
+      </c>
+      <c r="E66">
+        <v>-0.1089204428317131</v>
+      </c>
+      <c r="F66">
+        <v>0.003086979772547729</v>
+      </c>
+      <c r="G66">
+        <v>-0.02042723510408472</v>
+      </c>
+      <c r="H66">
+        <v>0.0138624669602581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.016112968774198</v>
+        <v>0.01676836559030071</v>
       </c>
       <c r="C67">
-        <v>-0.01749769302022462</v>
+        <v>-0.0352662358969008</v>
       </c>
       <c r="D67">
-        <v>-0.04565580115337395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03663964472222637</v>
+      </c>
+      <c r="E67">
+        <v>-0.05288800167189833</v>
+      </c>
+      <c r="F67">
+        <v>-0.01257560472569912</v>
+      </c>
+      <c r="G67">
+        <v>0.0005925999077173619</v>
+      </c>
+      <c r="H67">
+        <v>0.02691970671532656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2132217586620334</v>
+        <v>0.2800150330943637</v>
       </c>
       <c r="C68">
-        <v>0.1390514852790918</v>
+        <v>0.06891226765666564</v>
       </c>
       <c r="D68">
-        <v>-0.02470198864175143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03788788988975835</v>
+      </c>
+      <c r="E68">
+        <v>-0.01841903316021692</v>
+      </c>
+      <c r="F68">
+        <v>0.02680539656172024</v>
+      </c>
+      <c r="G68">
+        <v>-0.0399251081983505</v>
+      </c>
+      <c r="H68">
+        <v>0.006745021308862839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05174942480681996</v>
+        <v>0.01534839785137064</v>
       </c>
       <c r="C69">
-        <v>-0.1177110631534901</v>
+        <v>-0.1104163472901033</v>
       </c>
       <c r="D69">
-        <v>-0.06344413644359756</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01298295862771825</v>
+      </c>
+      <c r="E69">
+        <v>-0.01589837651814575</v>
+      </c>
+      <c r="F69">
+        <v>-0.009647583910401859</v>
+      </c>
+      <c r="G69">
+        <v>0.005957952368428173</v>
+      </c>
+      <c r="H69">
+        <v>-0.002785128426770318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2276438391544325</v>
+        <v>0.2698512704820747</v>
       </c>
       <c r="C71">
-        <v>0.160263881724632</v>
+        <v>0.08381732845006244</v>
       </c>
       <c r="D71">
-        <v>-0.01596199267516052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01519105178025509</v>
+      </c>
+      <c r="E71">
+        <v>0.00359720731378372</v>
+      </c>
+      <c r="F71">
+        <v>0.01497552392747309</v>
+      </c>
+      <c r="G71">
+        <v>-0.04208589987300432</v>
+      </c>
+      <c r="H71">
+        <v>0.02178390467480293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1004350875601176</v>
+        <v>0.06600592431822122</v>
       </c>
       <c r="C72">
-        <v>-0.07692501960845917</v>
+        <v>-0.1240494565714727</v>
       </c>
       <c r="D72">
-        <v>-0.09620334937949471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03017981161280129</v>
+      </c>
+      <c r="E72">
+        <v>-0.08612985759249057</v>
+      </c>
+      <c r="F72">
+        <v>-0.01462089876641644</v>
+      </c>
+      <c r="G72">
+        <v>0.03867378068612348</v>
+      </c>
+      <c r="H72">
+        <v>-0.004755798547725703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1751531788993436</v>
+        <v>0.1593583455666731</v>
       </c>
       <c r="C73">
-        <v>-0.08607092886933257</v>
+        <v>-0.1709595291011249</v>
       </c>
       <c r="D73">
-        <v>-0.1834512939123941</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.003354982655566982</v>
+      </c>
+      <c r="E73">
+        <v>-0.247019711920048</v>
+      </c>
+      <c r="F73">
+        <v>-0.3199676400076564</v>
+      </c>
+      <c r="G73">
+        <v>0.3866829779314717</v>
+      </c>
+      <c r="H73">
+        <v>-0.2012606867832125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1007046804451433</v>
+        <v>0.05134379344548542</v>
       </c>
       <c r="C74">
-        <v>-0.1206251363289135</v>
+        <v>-0.1409433832167502</v>
       </c>
       <c r="D74">
-        <v>0.0537317470977643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04525628287343004</v>
+      </c>
+      <c r="E74">
+        <v>0.0444482493920969</v>
+      </c>
+      <c r="F74">
+        <v>0.02953754350501599</v>
+      </c>
+      <c r="G74">
+        <v>-0.003066274987985237</v>
+      </c>
+      <c r="H74">
+        <v>0.004937590538439653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2144186377085325</v>
+        <v>0.09867024595222211</v>
       </c>
       <c r="C75">
-        <v>-0.2102767654617667</v>
+        <v>-0.2584539722275527</v>
       </c>
       <c r="D75">
-        <v>0.0299557600679364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09344742369063616</v>
+      </c>
+      <c r="E75">
+        <v>0.1346954529850303</v>
+      </c>
+      <c r="F75">
+        <v>-0.06031745896272677</v>
+      </c>
+      <c r="G75">
+        <v>-0.1042170246899578</v>
+      </c>
+      <c r="H75">
+        <v>0.1110967745394955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1306285613096945</v>
+        <v>0.06184930356562356</v>
       </c>
       <c r="C76">
-        <v>-0.1423485429466813</v>
+        <v>-0.1765726738291016</v>
       </c>
       <c r="D76">
-        <v>-0.01034345421428289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04031596899580512</v>
+      </c>
+      <c r="E76">
+        <v>0.04813431291430568</v>
+      </c>
+      <c r="F76">
+        <v>-0.0116609523014292</v>
+      </c>
+      <c r="G76">
+        <v>-0.04053216455442528</v>
+      </c>
+      <c r="H76">
+        <v>0.02032755921543368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.00600020357652742</v>
+        <v>-0.00212185401016574</v>
       </c>
       <c r="C77">
-        <v>-0.08469827150709494</v>
+        <v>-0.1286099475581701</v>
       </c>
       <c r="D77">
-        <v>-0.2138026338586957</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7013637378991189</v>
+      </c>
+      <c r="E77">
+        <v>0.619426385070822</v>
+      </c>
+      <c r="F77">
+        <v>-0.1417171484273209</v>
+      </c>
+      <c r="G77">
+        <v>0.1748085330386289</v>
+      </c>
+      <c r="H77">
+        <v>-0.02578931414502529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0311545023242929</v>
+        <v>0.02166305281916162</v>
       </c>
       <c r="C78">
-        <v>-0.0838376482534347</v>
+        <v>-0.09945725632025591</v>
       </c>
       <c r="D78">
-        <v>-0.1360091066779683</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05470208265370929</v>
+      </c>
+      <c r="E78">
+        <v>-0.1045284545250132</v>
+      </c>
+      <c r="F78">
+        <v>0.04434239474000837</v>
+      </c>
+      <c r="G78">
+        <v>-0.106709055175111</v>
+      </c>
+      <c r="H78">
+        <v>-0.02708572209145692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1135076513709073</v>
+        <v>0.05269963514557983</v>
       </c>
       <c r="C79">
-        <v>-0.2189329275395367</v>
+        <v>-0.2198756144979156</v>
       </c>
       <c r="D79">
-        <v>0.6586137330912456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1497726119417894</v>
+      </c>
+      <c r="E79">
+        <v>0.1600367033820249</v>
+      </c>
+      <c r="F79">
+        <v>0.7646506805553974</v>
+      </c>
+      <c r="G79">
+        <v>0.437025373465985</v>
+      </c>
+      <c r="H79">
+        <v>-0.08074025422311691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.008942390392806225</v>
+        <v>0.009965865844480597</v>
       </c>
       <c r="C80">
-        <v>-0.04335243725122435</v>
+        <v>-0.04467821170204357</v>
       </c>
       <c r="D80">
-        <v>-0.02881476147052643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002590152378434408</v>
+      </c>
+      <c r="E80">
+        <v>-0.0638978334203421</v>
+      </c>
+      <c r="F80">
+        <v>-0.009025805867161915</v>
+      </c>
+      <c r="G80">
+        <v>-0.005734762733511685</v>
+      </c>
+      <c r="H80">
+        <v>-0.08304448905326341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1004355763786489</v>
+        <v>0.03328483646524397</v>
       </c>
       <c r="C81">
-        <v>-0.1393552608149093</v>
+        <v>-0.1582097280142312</v>
       </c>
       <c r="D81">
-        <v>0.07251743458124248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06178364801221324</v>
+      </c>
+      <c r="E81">
+        <v>0.07031697974213215</v>
+      </c>
+      <c r="F81">
+        <v>0.0483564293750291</v>
+      </c>
+      <c r="G81">
+        <v>-0.0726458492523661</v>
+      </c>
+      <c r="H81">
+        <v>0.007850171641507944</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2094690313081642</v>
+        <v>0.07966324905898665</v>
       </c>
       <c r="C82">
-        <v>-0.3013661524296102</v>
+        <v>-0.2895662363435012</v>
       </c>
       <c r="D82">
-        <v>0.05529230807434234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1824483976547562</v>
+      </c>
+      <c r="E82">
+        <v>0.1574154396167543</v>
+      </c>
+      <c r="F82">
+        <v>-0.1196250446664953</v>
+      </c>
+      <c r="G82">
+        <v>-0.1730704896519396</v>
+      </c>
+      <c r="H82">
+        <v>0.03867272623179298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01141797438734016</v>
+        <v>-0.006126662119028885</v>
       </c>
       <c r="C83">
-        <v>-0.04993895717188127</v>
+        <v>-0.0169404297117914</v>
       </c>
       <c r="D83">
-        <v>0.003911372055407983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02918085029166936</v>
+      </c>
+      <c r="E83">
+        <v>0.09750770491328695</v>
+      </c>
+      <c r="F83">
+        <v>0.1043425350019451</v>
+      </c>
+      <c r="G83">
+        <v>-0.3895459371542432</v>
+      </c>
+      <c r="H83">
+        <v>-0.8504146678128978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001451206913080516</v>
+        <v>-0.003155965709182567</v>
       </c>
       <c r="C84">
-        <v>-0.004662504583201985</v>
+        <v>-0.01859314747879711</v>
       </c>
       <c r="D84">
-        <v>-0.009792019064973873</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03717496300556106</v>
+      </c>
+      <c r="E84">
+        <v>-0.03635693314971516</v>
+      </c>
+      <c r="F84">
+        <v>0.03706664319782408</v>
+      </c>
+      <c r="G84">
+        <v>-0.04040033590763678</v>
+      </c>
+      <c r="H84">
+        <v>0.06193615058499647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1302670819895174</v>
+        <v>0.05637145054148867</v>
       </c>
       <c r="C85">
-        <v>-0.1535837247622282</v>
+        <v>-0.1778020681638624</v>
       </c>
       <c r="D85">
-        <v>0.08743936142123734</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1164182812361347</v>
+      </c>
+      <c r="E85">
+        <v>0.05251358564874449</v>
+      </c>
+      <c r="F85">
+        <v>0.04120757586294022</v>
+      </c>
+      <c r="G85">
+        <v>-0.01293160049103438</v>
+      </c>
+      <c r="H85">
+        <v>0.02675343195135005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02393304487715417</v>
+        <v>0.01585434744744226</v>
       </c>
       <c r="C86">
-        <v>-0.01042639847438683</v>
+        <v>-0.0424294874981587</v>
       </c>
       <c r="D86">
-        <v>-0.07667880725660157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08899939995035036</v>
+      </c>
+      <c r="E86">
+        <v>-0.02564432284663064</v>
+      </c>
+      <c r="F86">
+        <v>0.04637322536694451</v>
+      </c>
+      <c r="G86">
+        <v>-0.03764905073033536</v>
+      </c>
+      <c r="H86">
+        <v>0.04364711164922402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02268636597261582</v>
+        <v>0.01179758103736728</v>
       </c>
       <c r="C87">
-        <v>-0.04131432516050192</v>
+        <v>-0.06893345887792285</v>
       </c>
       <c r="D87">
-        <v>-0.1150254399097632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1038630998759801</v>
+      </c>
+      <c r="E87">
+        <v>-0.08458857325855866</v>
+      </c>
+      <c r="F87">
+        <v>0.0497484501463072</v>
+      </c>
+      <c r="G87">
+        <v>-0.07403973294215668</v>
+      </c>
+      <c r="H87">
+        <v>0.01572675439220098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0478234826603231</v>
+        <v>0.03488746521791287</v>
       </c>
       <c r="C88">
-        <v>-0.05022540984542496</v>
+        <v>-0.07098303337780859</v>
       </c>
       <c r="D88">
-        <v>-0.007451641507998832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006843483811764649</v>
+      </c>
+      <c r="E88">
+        <v>-0.03051083563208134</v>
+      </c>
+      <c r="F88">
+        <v>0.01484132191620758</v>
+      </c>
+      <c r="G88">
+        <v>0.01845523720703836</v>
+      </c>
+      <c r="H88">
+        <v>0.0002989707638047349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3423251180154299</v>
+        <v>0.3981764229916953</v>
       </c>
       <c r="C89">
-        <v>0.2995584491269004</v>
+        <v>0.164631407088028</v>
       </c>
       <c r="D89">
-        <v>-0.01491790444509735</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04982346047869186</v>
+      </c>
+      <c r="E89">
+        <v>0.006757436138076255</v>
+      </c>
+      <c r="F89">
+        <v>0.07598102533554069</v>
+      </c>
+      <c r="G89">
+        <v>-0.08003828419739979</v>
+      </c>
+      <c r="H89">
+        <v>-0.05430346143811331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2736920673735392</v>
+        <v>0.3218615021699976</v>
       </c>
       <c r="C90">
-        <v>0.2170138161920895</v>
+        <v>0.1048157440768173</v>
       </c>
       <c r="D90">
-        <v>-0.06114328387209992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03570595764854731</v>
+      </c>
+      <c r="E90">
+        <v>-0.01556796353818383</v>
+      </c>
+      <c r="F90">
+        <v>-0.004842128066928177</v>
+      </c>
+      <c r="G90">
+        <v>-0.05673091000441929</v>
+      </c>
+      <c r="H90">
+        <v>0.01076828994226466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.137452238187339</v>
+        <v>0.06497591651673781</v>
       </c>
       <c r="C91">
-        <v>-0.1961924589149945</v>
+        <v>-0.2000018964785565</v>
       </c>
       <c r="D91">
-        <v>0.1015236144907336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08316315105199419</v>
+      </c>
+      <c r="E91">
+        <v>0.113975638808945</v>
+      </c>
+      <c r="F91">
+        <v>0.05227144484666919</v>
+      </c>
+      <c r="G91">
+        <v>-0.02578833548217031</v>
+      </c>
+      <c r="H91">
+        <v>-0.01113835548648954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2602640171909484</v>
+        <v>0.3357952549807316</v>
       </c>
       <c r="C92">
-        <v>0.2458896611853623</v>
+        <v>0.1454360032973977</v>
       </c>
       <c r="D92">
-        <v>0.03485754247268109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04413383313583299</v>
+      </c>
+      <c r="E92">
+        <v>0.04761176708083363</v>
+      </c>
+      <c r="F92">
+        <v>0.05019059257661389</v>
+      </c>
+      <c r="G92">
+        <v>-0.00320964502678062</v>
+      </c>
+      <c r="H92">
+        <v>0.1277456148221279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2919419304168395</v>
+        <v>0.3298128745623354</v>
       </c>
       <c r="C93">
-        <v>0.2265728901327041</v>
+        <v>0.1205902656127335</v>
       </c>
       <c r="D93">
-        <v>0.02585040824207786</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02316158585632484</v>
+      </c>
+      <c r="E93">
+        <v>0.005790941548913344</v>
+      </c>
+      <c r="F93">
+        <v>0.01055630971952041</v>
+      </c>
+      <c r="G93">
+        <v>0.02275752548201782</v>
+      </c>
+      <c r="H93">
+        <v>0.02903337202208531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2534719539683482</v>
+        <v>0.1231324839044878</v>
       </c>
       <c r="C94">
-        <v>-0.2740037002506475</v>
+        <v>-0.310470225783945</v>
       </c>
       <c r="D94">
-        <v>0.1147513756701879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2835461804233964</v>
+      </c>
+      <c r="E94">
+        <v>0.211573934051579</v>
+      </c>
+      <c r="F94">
+        <v>-0.1637427314619863</v>
+      </c>
+      <c r="G94">
+        <v>-0.2693486596449798</v>
+      </c>
+      <c r="H94">
+        <v>0.1424177562982693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0003088219435223149</v>
+        <v>0.01373428310682509</v>
       </c>
       <c r="C95">
-        <v>-0.0531328038173685</v>
+        <v>-0.07705268962237714</v>
       </c>
       <c r="D95">
-        <v>-0.09924386891489834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1579306785600393</v>
+      </c>
+      <c r="E95">
+        <v>0.03405781766332858</v>
+      </c>
+      <c r="F95">
+        <v>0.002898067647255195</v>
+      </c>
+      <c r="G95">
+        <v>0.0476634284078022</v>
+      </c>
+      <c r="H95">
+        <v>0.04595582130120379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002194242711900068</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009687336582040944</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0005685691939695669</v>
+      </c>
+      <c r="E97">
+        <v>-0.003702595752413647</v>
+      </c>
+      <c r="F97">
+        <v>0.0002327666538227487</v>
+      </c>
+      <c r="G97">
+        <v>3.351933061285122e-05</v>
+      </c>
+      <c r="H97">
+        <v>0.005314839159337467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1490324353906039</v>
+        <v>0.1347106005750891</v>
       </c>
       <c r="C98">
-        <v>-0.1000842660686865</v>
+        <v>-0.1632233386777981</v>
       </c>
       <c r="D98">
-        <v>-0.1309388972918243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01904442394664341</v>
+      </c>
+      <c r="E98">
+        <v>-0.1533045503050891</v>
+      </c>
+      <c r="F98">
+        <v>-0.2649271639883483</v>
+      </c>
+      <c r="G98">
+        <v>0.2904837374446371</v>
+      </c>
+      <c r="H98">
+        <v>-0.174399559284571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002350802196081633</v>
+        <v>0.001554632812065365</v>
       </c>
       <c r="C101">
-        <v>-0.0227402826508923</v>
+        <v>-0.04063197712061112</v>
       </c>
       <c r="D101">
-        <v>-0.05993677321403446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.06267595651280825</v>
+      </c>
+      <c r="E101">
+        <v>-0.1213901806562798</v>
+      </c>
+      <c r="F101">
+        <v>0.0469819092817939</v>
+      </c>
+      <c r="G101">
+        <v>-0.008218861571801591</v>
+      </c>
+      <c r="H101">
+        <v>-0.04725393531163255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08689567740084266</v>
+        <v>0.0199389647241795</v>
       </c>
       <c r="C102">
-        <v>-0.1598797186095293</v>
+        <v>-0.1318619021602411</v>
       </c>
       <c r="D102">
-        <v>-0.004997661454404978</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.07390121125684064</v>
+      </c>
+      <c r="E102">
+        <v>0.07692701103807119</v>
+      </c>
+      <c r="F102">
+        <v>-0.07546370096757563</v>
+      </c>
+      <c r="G102">
+        <v>-0.03895485822156955</v>
+      </c>
+      <c r="H102">
+        <v>-0.01151144429795219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
